--- a/data.xlsx
+++ b/data.xlsx
@@ -413,60 +413,60 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcatel 1066D Dual SIM - Warm White</t>
+          <t>Samsung Galaxy Note 10 Plus Dual SIM - 256GB, 12GB RAM, 4G LTE, Aura Glow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>15,200.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M10 Dual Sim - 16 GB, 2 GB Ram, 4G LTE, Ocean Blue</t>
+          <t>Alcatel 1066D Dual SIM - Warm White</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,699.00</t>
+          <t>199.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Oppo Reno2 F Dual SIM - 6.5 Inch, 128 GB, 8 GB RAM, 4G LTE - Lake Green</t>
+          <t>Samsung Galaxy M10 Dual Sim - 16 GB, 2 GB Ram, 4G LTE, Ocean Blue</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5,290.00</t>
+          <t>1,699.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 11 with FaceTime - 64GB, 4GB RAM, 4G LTE, Green, Single SIM &amp; E-SIM</t>
+          <t>Oppo Reno2 F Dual SIM - 6.5 Inch, 128 GB, 8 GB RAM, 4G LTE - Lake Green</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14,399.00</t>
+          <t>5,290.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apple Iphone XS With Facetime - 64 GB, 4G LTE, Gold, 4 GB Ram, Single Sim &amp; E-Sim</t>
+          <t>Apple iPhone 11 with FaceTime - 64GB, 4GB RAM, 4G LTE, Green, Single SIM &amp; E-SIM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10,999.00</t>
+          <t>14,399.00</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16,663.00</t>
+          <t>16,662.00</t>
         </is>
       </c>
     </row>
@@ -804,24 +804,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baby Foot Game - Unisex</t>
+          <t>Mecha Ares 2 In 1 Distortion Dual Model Robot Car</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>404.00</t>
+          <t>108.66</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mecha Ares 2 In 1 Distortion Dual Model Robot Car</t>
+          <t>Baby Foot Game - Unisex</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>108.66</t>
+          <t>404.00</t>
         </is>
       </c>
     </row>
@@ -888,48 +888,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>لعبة القطار الخارق 3 عربات قطار يعمل بالبطارية</t>
+          <t>Robot Car Transformer Toy with Remote Control for Boys - Orange</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53.50</t>
+          <t>350.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Playgo 2 In 1 Telephone &amp; Board-2190</t>
+          <t>Kitchen Cooking Set - Unisex</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501.00</t>
+          <t>55.50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Robot Car Transformer Toy with Remote Control for Boys - Orange</t>
+          <t>لعبة القطار الخارق 3 عربات قطار يعمل بالبطارية</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>350.00</t>
+          <t>53.50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Transformer Robot- Multi Color</t>
+          <t>Playgo 2 In 1 Telephone &amp; Board-2190</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>501.00</t>
         </is>
       </c>
     </row>
@@ -948,24 +948,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fishing Happy Game for Kids - 5 Pieces</t>
+          <t>Transformer Robot- Multi Color</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>126.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hammer toy, strengthen the muscles of the child and develop the skill of will and success in reaching the goal</t>
+          <t>Fishing Happy Game for Kids - 5 Pieces</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>171.00</t>
+          <t>12.00</t>
         </is>
       </c>
     </row>
@@ -984,120 +984,120 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Peilida Ship Rudder Shoot Gun with Light and Music</t>
+          <t>Hammer toy, strengthen the muscles of the child and develop the skill of will and success in reaching the goal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>295.00</t>
+          <t>171.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tutu Love My First 11 In 1 Doll Stroller Playset</t>
+          <t>Hasbro Twister Classic Game (98831)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>868.50</t>
+          <t>114.38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Human Skeleton Wooden Puzzle for Kids</t>
+          <t>Fun Cook Kitchen Set, 889-52, 24 Pieces - Multi Color</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>405.00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>مسدس لعبة - العاب تسلية</t>
+          <t>Peilida Ship Rudder Shoot Gun with Light and Music</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>295.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fun Cook Kitchen Set, 889-52, 24 Pieces - Multi Color</t>
+          <t>Tutu Love My First 11 In 1 Doll Stroller Playset</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>405.00</t>
+          <t>868.50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PlayGo 2 In 1 Alphabet and Drawing Board - 3 Years &amp; Above</t>
+          <t>Human Skeleton Wooden Puzzle for Kids</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>699.00</t>
+          <t>140.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Plastic Water Gun - Unisex</t>
+          <t>مسدس لعبة - العاب تسلية</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>19.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Toddler Play Tent Sea Ball Pool with Mini Basketball</t>
+          <t>PlayGo 2 In 1 Alphabet and Drawing Board - 3 Years &amp; Above</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>250.00</t>
+          <t>699.00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Baisiqi Build and Play Blocks for Kids, 3 Models, 62 Pieces</t>
+          <t>Plastic Water Gun - Unisex</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>224.28</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bingo Radio Controlled Convertible aventador Car - Red</t>
+          <t>Toddler Play Tent Sea Ball Pool with Mini Basketball</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>800.00</t>
+          <t>250.00</t>
         </is>
       </c>
     </row>
@@ -1291,48 +1291,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Davidoff Cool Water for Women - Eau de Toilette, 100ml</t>
+          <t>Arden Beauty by Elizabeth Arden for Women - Eau de Parfum, 100ml</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>423.96</t>
+          <t>756.36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arden Beauty by Elizabeth Arden for Women - Eau de Parfum, 100ml</t>
+          <t>Braun Bikini Trimmer FG1100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>756.36</t>
+          <t>549.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elizabeth Arden Green Tea for Women - Eau de Parfum, 100ml</t>
+          <t>Davidoff Cool Water for Women - Eau de Toilette, 100ml</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>398.92</t>
+          <t>423.96</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Braun Bikini Trimmer FG1100</t>
+          <t>Elizabeth Arden Green Tea for Women - Eau de Parfum, 100ml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>549.00</t>
+          <t>398.92</t>
         </is>
       </c>
     </row>
@@ -1411,24 +1411,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Guess Seductive Homme for Men - Eau de Toilette, 100ml</t>
+          <t>Touch Of Pink By Lacoste For Women - Eau De Toilette, 90 ml</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>378.99</t>
+          <t>614.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Touch Of Pink By Lacoste For Women - Eau De Toilette, 90 ml</t>
+          <t>Guess Seductive Homme for Men - Eau de Toilette, 100ml</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>614.00</t>
+          <t>378.99</t>
         </is>
       </c>
     </row>
@@ -1917,60 +1917,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pampers Premium Care Mini Size 2-74 Pc,Set of 2</t>
+          <t>Chicco Myamaki Complete Baby Carrier, Grey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>328.00</t>
+          <t>1,545.75</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pampers Baby Dry Junior Size 5-58 Piece,Set of 3</t>
+          <t>Pampers Premium Care Mini Size 2-74 Pc,Set of 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>495.00</t>
+          <t>328.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pampers Baby Dry Midi Size 3-80 Piece,Set of 2</t>
+          <t>Pampers Baby Dry Junior Size 5-58 Piece,Set of 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>412.50</t>
+          <t>495.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Molfix Diapers Jumbo Pack Midi with Unique 3D Technology - Jumbo Economy Pack 58 Pcs, Size 3</t>
+          <t>Pampers Baby Dry Midi Size 3-80 Piece,Set of 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>412.50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chicco Myamaki Complete Baby Carrier, Grey</t>
+          <t>Molfix Diapers Jumbo Pack Midi with Unique 3D Technology - Jumbo Economy Pack 58 Pcs, Size 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,545.75</t>
+          <t>120.00</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3366,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Set Of 2 Safety Belt Clip Car Seat Buckle</t>
+          <t>El Youser Battery Jumper Cables 400 Ampere</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>189.30</t>
         </is>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tornado Tcf56Bw Ceiling Fan with 3 Metal Blades - 56 Inch, White</t>
+          <t>Fresh HS100 One-Eye Hot Plate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>449.00</t>
+          <t>193.00</t>
         </is>
       </c>
     </row>
